--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3007577.297655509</v>
+        <v>3001855.685687624</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836236</v>
+        <v>6654055.582836237</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8844458.916376946</v>
+        <v>8844458.916376948</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>371.0573912747584</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>109.4422623037129</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -721,10 +721,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>22.11041309544132</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>25.3159054168623</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>159.07073569227</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>206.0020113488502</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>18.01892853764483</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>205.3743261851593</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>12.38977444422385</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>11.61116951838017</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1293,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>189.596843649344</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710085</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1423,7 +1423,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,13 +1536,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>61.32615370389225</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1587,13 +1587,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1660,7 +1660,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1767,13 +1767,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1782,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>78.95788862292738</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1824,7 +1824,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>251.4434670897031</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1900,7 +1900,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2004,22 +2004,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2055,19 +2055,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>175.1076579375981</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>112.1089293338333</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2177,7 +2177,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
         <v>18.81721868247745</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>61.60385878691238</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2247,10 +2247,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>84.69473660442779</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>52.74455946606851</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>173.1032215148788</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>143.4248579225446</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2775,10 +2775,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>282.9660213629343</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2952,25 +2952,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>74.75769145492406</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3012,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>100.1587511393846</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3189,13 +3189,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3237,22 +3237,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>99.0488376328788</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>100.5130655815909</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534538</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
@@ -3319,7 +3319,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>116.1324508043528</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>122.4731042248912</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>54.3236916715851</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>6.38006817584762</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -3723,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3796,7 +3796,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3900,13 +3900,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>114.0161479172571</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>108.5674217103421</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>128.7977883817948</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>114.4746605491556</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1327.372931623164</v>
+        <v>554.3221432721089</v>
       </c>
       <c r="C2" t="n">
-        <v>1327.372931623164</v>
+        <v>185.3596263316971</v>
       </c>
       <c r="D2" t="n">
-        <v>1327.372931623164</v>
+        <v>185.3596263316971</v>
       </c>
       <c r="E2" t="n">
-        <v>1327.372931623164</v>
+        <v>185.3596263316971</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>178.4141255824937</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>164.4907215210846</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2048.575150942547</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>1717.512263598976</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W2" t="n">
-        <v>1717.512263598976</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X2" t="n">
-        <v>1717.512263598976</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y2" t="n">
-        <v>1327.372931623164</v>
+        <v>940.9219833362306</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4412,22 +4412,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>76.27673242182033</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C4" t="n">
-        <v>76.27673242182033</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>702.55736257324</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>702.55736257324</v>
       </c>
       <c r="S4" t="n">
-        <v>365.6939024587809</v>
+        <v>702.55736257324</v>
       </c>
       <c r="T4" t="n">
-        <v>365.6939024587809</v>
+        <v>702.55736257324</v>
       </c>
       <c r="U4" t="n">
-        <v>365.6939024587809</v>
+        <v>702.55736257324</v>
       </c>
       <c r="V4" t="n">
-        <v>365.6939024587809</v>
+        <v>702.55736257324</v>
       </c>
       <c r="W4" t="n">
-        <v>76.27673242182033</v>
+        <v>702.55736257324</v>
       </c>
       <c r="X4" t="n">
-        <v>76.27673242182033</v>
+        <v>702.55736257324</v>
       </c>
       <c r="Y4" t="n">
-        <v>76.27673242182033</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1359.546482223454</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="C5" t="n">
-        <v>990.5839652830421</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="D5" t="n">
-        <v>632.3182666762915</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762915</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4585,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018223</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990286</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.752638628377</v>
+        <v>2312.888763586079</v>
       </c>
       <c r="V5" t="n">
-        <v>1893.689751284806</v>
+        <v>1981.825876242509</v>
       </c>
       <c r="W5" t="n">
-        <v>1893.689751284806</v>
+        <v>1629.057220972395</v>
       </c>
       <c r="X5" t="n">
-        <v>1520.223993023727</v>
+        <v>1255.591462711315</v>
       </c>
       <c r="Y5" t="n">
-        <v>1520.223993023727</v>
+        <v>865.4521307355029</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036446</v>
+        <v>517.0636002298166</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036446</v>
+        <v>517.0636002298166</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036446</v>
+        <v>366.9469608174809</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036446</v>
+        <v>219.0338672350878</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>72.14391973717741</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600563</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942403</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942403</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942403</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>261.3917961488082</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>261.3917961488082</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W7" t="n">
-        <v>261.3917961488082</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036446</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036446</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1359.546482223454</v>
+        <v>1141.749745823171</v>
       </c>
       <c r="C8" t="n">
-        <v>990.5839652830421</v>
+        <v>772.7872288827589</v>
       </c>
       <c r="D8" t="n">
-        <v>632.3182666762915</v>
+        <v>414.5215302760084</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762915</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,10 +4822,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4837,19 +4837,19 @@
         <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>2134.880026519315</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W8" t="n">
-        <v>2123.151572460346</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X8" t="n">
-        <v>1749.685814199265</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="Y8" t="n">
-        <v>1359.546482223454</v>
+        <v>1528.349585887292</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4895,10 +4895,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005475</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5041,28 +5041,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>913.1101661838561</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1364.144379432265</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>1897.67628410419</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N11" t="n">
-        <v>2877.428556330836</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O11" t="n">
-        <v>3757.393206660291</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5071,16 +5071,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
         <v>3150.95552873011</v>
@@ -5096,64 +5096,64 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320241</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>472.0994283734972</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C13" t="n">
-        <v>472.0994283734972</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D13" t="n">
-        <v>472.0994283734972</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
         <v>95.56103444839442</v>
@@ -5235,16 +5235,16 @@
         <v>1163.957642384228</v>
       </c>
       <c r="V13" t="n">
-        <v>1163.957642384228</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W13" t="n">
-        <v>874.540472347267</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X13" t="n">
-        <v>874.540472347267</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y13" t="n">
-        <v>653.7478932037369</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
         <v>850.213983755162</v>
@@ -5278,22 +5278,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>321.2053114736835</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>975.9286436089831</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1840.447459262338</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2373.979363934262</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N14" t="n">
-        <v>2920.758180993045</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O14" t="n">
-        <v>3800.7228313225</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P14" t="n">
         <v>4195.497197679678</v>
@@ -5308,22 +5308,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="15">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>392.5676213586405</v>
+        <v>736.3813786917215</v>
       </c>
       <c r="C16" t="n">
-        <v>392.5676213586405</v>
+        <v>567.4451957638146</v>
       </c>
       <c r="D16" t="n">
-        <v>242.4509819463048</v>
+        <v>567.4451957638146</v>
       </c>
       <c r="E16" t="n">
-        <v>242.4509819463048</v>
+        <v>419.5321021814215</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839442</v>
+        <v>272.6421546835111</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839442</v>
+        <v>272.6421546835111</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5460,28 +5460,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U16" t="n">
-        <v>1163.957642384228</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V16" t="n">
-        <v>909.9743422936185</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="W16" t="n">
-        <v>620.5571722566579</v>
+        <v>964.3709295897388</v>
       </c>
       <c r="X16" t="n">
-        <v>392.5676213586405</v>
+        <v>736.3813786917215</v>
       </c>
       <c r="Y16" t="n">
-        <v>392.5676213586405</v>
+        <v>736.3813786917215</v>
       </c>
     </row>
     <row r="17">
@@ -5494,19 +5494,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5515,46 +5515,46 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1803.682313196074</v>
+        <v>1586.925993846823</v>
       </c>
       <c r="M17" t="n">
-        <v>2337.214217867999</v>
+        <v>2120.457898518747</v>
       </c>
       <c r="N17" t="n">
-        <v>2883.993034926781</v>
+        <v>2667.23671557753</v>
       </c>
       <c r="O17" t="n">
-        <v>3757.393206660291</v>
+        <v>3547.201365906984</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3154.542034367489</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C18" t="n">
-        <v>2980.089005086362</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D18" t="n">
-        <v>2831.154595425111</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E18" t="n">
-        <v>2671.917140419655</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F18" t="n">
-        <v>2525.38258244654</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G18" t="n">
-        <v>2389.019482279158</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>2298.517587917025</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>2611.451764789528</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>2978.149925102193</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M18" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>4227.758635317988</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W18" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>3530.517670152511</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>3322.757371387557</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>393.5907674431232</v>
+        <v>578.4172407837245</v>
       </c>
       <c r="C19" t="n">
-        <v>393.5907674431232</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="D19" t="n">
-        <v>243.4741280307875</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E19" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H19" t="n">
         <v>95.56103444839442</v>
@@ -5703,22 +5703,22 @@
         <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258584</v>
+        <v>1497.950702529868</v>
       </c>
       <c r="U19" t="n">
-        <v>1163.957642384228</v>
+        <v>1208.847835655512</v>
       </c>
       <c r="V19" t="n">
-        <v>909.2731541783409</v>
+        <v>1208.847835655512</v>
       </c>
       <c r="W19" t="n">
-        <v>909.2731541783409</v>
+        <v>1208.847835655512</v>
       </c>
       <c r="X19" t="n">
-        <v>796.0318114168931</v>
+        <v>980.8582847574944</v>
       </c>
       <c r="Y19" t="n">
-        <v>575.239232273363</v>
+        <v>760.0657056139643</v>
       </c>
     </row>
     <row r="20">
@@ -5743,7 +5743,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5752,28 +5752,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K20" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L20" t="n">
-        <v>1803.682313196074</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2337.214217867999</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N20" t="n">
-        <v>2883.993034926781</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O20" t="n">
-        <v>3763.957685256236</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5807,37 +5807,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161926</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5846,25 +5846,25 @@
         <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5873,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
         <v>95.56103444839442</v>
@@ -5913,7 +5913,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5925,37 +5925,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S22" t="n">
-        <v>1956.343466104704</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T22" t="n">
-        <v>1734.57685067423</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U22" t="n">
-        <v>1445.473983799873</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V22" t="n">
-        <v>1190.789495593986</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W22" t="n">
-        <v>901.3723255570255</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X22" t="n">
-        <v>673.3827746590082</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y22" t="n">
-        <v>452.5901955154781</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
         <v>2005.253839749764</v>
@@ -5974,67 +5974,67 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1465.885462454823</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>1999.417367126748</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N23" t="n">
-        <v>2979.169639353394</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6044,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C24" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6086,22 +6086,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3236.322113103654</v>
+        <v>781.811212990069</v>
       </c>
       <c r="C25" t="n">
-        <v>3067.385930175747</v>
+        <v>612.8750300621621</v>
       </c>
       <c r="D25" t="n">
-        <v>2917.269290763412</v>
+        <v>462.7583906498263</v>
       </c>
       <c r="E25" t="n">
-        <v>2917.269290763412</v>
+        <v>462.7583906498263</v>
       </c>
       <c r="F25" t="n">
-        <v>2917.269290763412</v>
+        <v>462.7583906498263</v>
       </c>
       <c r="G25" t="n">
-        <v>2917.269290763412</v>
+        <v>295.0555540245452</v>
       </c>
       <c r="H25" t="n">
-        <v>2917.269290763412</v>
+        <v>148.838367242403</v>
       </c>
       <c r="I25" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N25" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>4586.365838246547</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T25" t="n">
-        <v>4364.599222816073</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U25" t="n">
-        <v>4075.496355941717</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V25" t="n">
-        <v>3820.81186773583</v>
+        <v>1701.658977898817</v>
       </c>
       <c r="W25" t="n">
-        <v>3645.960128831912</v>
+        <v>1412.241807861856</v>
       </c>
       <c r="X25" t="n">
-        <v>3417.970577933894</v>
+        <v>1184.252256963839</v>
       </c>
       <c r="Y25" t="n">
-        <v>3417.970577933894</v>
+        <v>963.4596778203087</v>
       </c>
     </row>
     <row r="26">
@@ -6214,10 +6214,10 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6229,22 +6229,22 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1236.699401366028</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M26" t="n">
-        <v>2215.249704195857</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N26" t="n">
-        <v>3130.95002174635</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O26" t="n">
-        <v>4010.914672075804</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P26" t="n">
-        <v>4405.689038432983</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q26" t="n">
         <v>4653.975400188665</v>
@@ -6281,34 +6281,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C27" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
         <v>794.2006632320242</v>
@@ -6323,16 +6323,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3307.702102225118</v>
+        <v>264.4972173763013</v>
       </c>
       <c r="C28" t="n">
-        <v>3307.702102225118</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D28" t="n">
-        <v>3307.702102225118</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E28" t="n">
-        <v>3307.702102225118</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F28" t="n">
-        <v>3160.812154727208</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G28" t="n">
-        <v>3160.812154727208</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H28" t="n">
-        <v>3014.594967945065</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I28" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N28" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>4688.221265177248</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>4543.347671316092</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>4543.347671316092</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>4254.244804441735</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V28" t="n">
-        <v>3999.560316235848</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W28" t="n">
-        <v>3710.143146198888</v>
+        <v>713.2793474178487</v>
       </c>
       <c r="X28" t="n">
-        <v>3710.143146198888</v>
+        <v>485.2897965198314</v>
       </c>
       <c r="Y28" t="n">
-        <v>3489.350567055358</v>
+        <v>264.4972173763013</v>
       </c>
     </row>
     <row r="29">
@@ -6442,25 +6442,25 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
         <v>284.4401654074198</v>
@@ -6469,25 +6469,25 @@
         <v>939.1634975427194</v>
       </c>
       <c r="L29" t="n">
-        <v>1803.682313196074</v>
+        <v>1729.091615892342</v>
       </c>
       <c r="M29" t="n">
-        <v>2337.214217867999</v>
+        <v>2707.641918722171</v>
       </c>
       <c r="N29" t="n">
-        <v>2883.993034926781</v>
+        <v>3254.420735780953</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232732</v>
+        <v>3757.39320666029</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S29" t="n">
         <v>4667.761053946815</v>
@@ -6496,19 +6496,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6518,58 +6518,58 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C30" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.1131475839754</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="C31" t="n">
-        <v>411.1769646560685</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="D31" t="n">
-        <v>411.1769646560685</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="E31" t="n">
-        <v>263.2638710736754</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="F31" t="n">
-        <v>263.2638710736754</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839442</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839442</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6660,13 +6660,13 @@
         <v>909.2731541783409</v>
       </c>
       <c r="W31" t="n">
-        <v>909.2731541783409</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X31" t="n">
-        <v>681.2836032803235</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y31" t="n">
-        <v>580.1131475839754</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="32">
@@ -6688,49 +6688,49 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G32" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1971.087962216427</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2504.619866888352</v>
+        <v>2016.310259422546</v>
       </c>
       <c r="N32" t="n">
-        <v>3051.398683947134</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O32" t="n">
-        <v>3554.371154826471</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P32" t="n">
-        <v>4267.726242273417</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
         <v>4208.252829604874</v>
@@ -6755,37 +6755,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320246</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6821,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3605.731835219847</v>
+        <v>654.9300288380085</v>
       </c>
       <c r="C34" t="n">
-        <v>3605.731835219847</v>
+        <v>485.9938459101016</v>
       </c>
       <c r="D34" t="n">
-        <v>3455.615195807511</v>
+        <v>485.9938459101016</v>
       </c>
       <c r="E34" t="n">
-        <v>3307.702102225118</v>
+        <v>485.9938459101016</v>
       </c>
       <c r="F34" t="n">
-        <v>3160.812154727208</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G34" t="n">
-        <v>3160.812154727208</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H34" t="n">
-        <v>3014.594967945065</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I34" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N34" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>4688.221265177248</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S34" t="n">
-        <v>4688.221265177248</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T34" t="n">
-        <v>4688.221265177248</v>
+        <v>1574.777793746756</v>
       </c>
       <c r="U34" t="n">
-        <v>4399.118398302891</v>
+        <v>1574.777793746756</v>
       </c>
       <c r="V34" t="n">
-        <v>4297.590049230577</v>
+        <v>1574.777793746756</v>
       </c>
       <c r="W34" t="n">
-        <v>4008.172879193617</v>
+        <v>1285.360623709796</v>
       </c>
       <c r="X34" t="n">
-        <v>4008.172879193617</v>
+        <v>1057.371072811778</v>
       </c>
       <c r="Y34" t="n">
-        <v>3787.380300050087</v>
+        <v>836.5784936682483</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G35" t="n">
         <v>435.1415336001585</v>
@@ -6937,25 +6937,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2151.197749519704</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>3130.950021746351</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
-        <v>4010.914672075805</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P35" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
         <v>4653.975400188666</v>
@@ -6967,22 +6967,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="36">
@@ -7007,7 +7007,7 @@
         <v>341.4333205763703</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H36" t="n">
         <v>114.5683260468563</v>
@@ -7016,22 +7016,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L36" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
         <v>2436.460902902952</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3459.514648437706</v>
+        <v>825.859557377715</v>
       </c>
       <c r="C37" t="n">
-        <v>3459.514648437706</v>
+        <v>656.9233744498081</v>
       </c>
       <c r="D37" t="n">
-        <v>3309.39800902537</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E37" t="n">
-        <v>3161.484915442977</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F37" t="n">
-        <v>3014.594967945066</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G37" t="n">
-        <v>3014.594967945066</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H37" t="n">
-        <v>3014.594967945066</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I37" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M37" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N37" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P37" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>4688.221265177249</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S37" t="n">
-        <v>4496.535381004075</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T37" t="n">
-        <v>4274.768765573601</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U37" t="n">
-        <v>3985.665898699244</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V37" t="n">
-        <v>3985.665898699244</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="W37" t="n">
-        <v>3861.955692411475</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="X37" t="n">
-        <v>3861.955692411475</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="Y37" t="n">
-        <v>3641.163113267945</v>
+        <v>943.1650632406976</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
         <v>2005.253839749764</v>
@@ -7159,16 +7159,16 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G38" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
@@ -7183,16 +7183,16 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M38" t="n">
-        <v>2461.32865758045</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N38" t="n">
-        <v>3008.107474639232</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O38" t="n">
-        <v>3888.072124968687</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P38" t="n">
-        <v>4282.846491325865</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q38" t="n">
         <v>4719.034655862919</v>
@@ -7207,19 +7207,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
         <v>205.0702204089889</v>
@@ -7253,13 +7253,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7274,7 +7274,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
         <v>2593.958107142068</v>
@@ -7283,7 +7283,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
         <v>2043.809373447819</v>
@@ -7292,7 +7292,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W39" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
         <v>1346.568408282342</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>909.2731541783409</v>
+        <v>270.9417306852383</v>
       </c>
       <c r="C40" t="n">
-        <v>854.4007383484569</v>
+        <v>102.0055477573314</v>
       </c>
       <c r="D40" t="n">
-        <v>704.2840989361212</v>
+        <v>102.0055477573314</v>
       </c>
       <c r="E40" t="n">
-        <v>556.371005353728</v>
+        <v>102.0055477573314</v>
       </c>
       <c r="F40" t="n">
-        <v>409.4810578558177</v>
+        <v>102.0055477573314</v>
       </c>
       <c r="G40" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
         <v>95.56103444839442</v>
@@ -7356,28 +7356,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T40" t="n">
-        <v>1453.060509258584</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U40" t="n">
-        <v>1163.957642384228</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V40" t="n">
-        <v>909.2731541783409</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W40" t="n">
-        <v>909.2731541783409</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X40" t="n">
-        <v>909.2731541783409</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y40" t="n">
-        <v>909.2731541783409</v>
+        <v>452.5901955154781</v>
       </c>
     </row>
     <row r="41">
@@ -7411,37 +7411,37 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1803.682313196074</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2337.214217867999</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N41" t="n">
-        <v>2883.993034926781</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
         <v>4208.252829604874</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>2389.019482279158</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>2298.517587917026</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
-        <v>2279.510296318564</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>2373.187565809181</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>2611.451764789528</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>2978.149925102193</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>3898.949293878963</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O42" t="n">
-        <v>4309.910573297017</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S42" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W42" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>508.5026418377232</v>
+        <v>582.3166934139181</v>
       </c>
       <c r="C43" t="n">
-        <v>508.5026418377232</v>
+        <v>413.3805104860112</v>
       </c>
       <c r="D43" t="n">
-        <v>508.5026418377232</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E43" t="n">
-        <v>360.5895482553301</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F43" t="n">
-        <v>360.5895482553301</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G43" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
@@ -7599,22 +7599,22 @@
         <v>1866.513008862232</v>
       </c>
       <c r="T43" t="n">
-        <v>1751.345182683184</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="U43" t="n">
-        <v>1462.242315808828</v>
+        <v>1756.848946528553</v>
       </c>
       <c r="V43" t="n">
-        <v>1207.557827602941</v>
+        <v>1502.164458322666</v>
       </c>
       <c r="W43" t="n">
-        <v>918.1406575659803</v>
+        <v>1212.747288285705</v>
       </c>
       <c r="X43" t="n">
-        <v>690.1511066679629</v>
+        <v>984.7577373876879</v>
       </c>
       <c r="Y43" t="n">
-        <v>690.1511066679629</v>
+        <v>763.9651582441578</v>
       </c>
     </row>
     <row r="44">
@@ -7639,10 +7639,10 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839442</v>
@@ -7651,22 +7651,22 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L44" t="n">
-        <v>1390.197710791128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M44" t="n">
-        <v>2368.748013620957</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N44" t="n">
-        <v>3348.500285847604</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O44" t="n">
-        <v>3851.472756726941</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P44" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q44" t="n">
         <v>4719.034655862919</v>
@@ -7703,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7769,10 +7769,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3922.352991503927</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C46" t="n">
-        <v>3753.41680857602</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D46" t="n">
-        <v>3623.318032432793</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E46" t="n">
-        <v>3475.4049388504</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F46" t="n">
-        <v>3328.51499135249</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G46" t="n">
-        <v>3160.812154727209</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H46" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I46" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L46" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M46" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N46" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P46" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q46" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>4688.221265177249</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S46" t="n">
-        <v>4688.221265177249</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T46" t="n">
-        <v>4466.454649746775</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U46" t="n">
-        <v>4466.454649746775</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V46" t="n">
-        <v>4211.770161540888</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W46" t="n">
-        <v>3922.352991503927</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X46" t="n">
-        <v>3922.352991503927</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y46" t="n">
-        <v>3922.352991503927</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,13 +8543,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8689,10 +8689,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>297.8289162490806</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8701,19 +8701,19 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8926,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>37.13651117804412</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8941,10 +8941,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9163,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>29.61882225792044</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9178,13 +9178,13 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>374.169394802195</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9400,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9415,16 +9415,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P20" t="n">
-        <v>102.8529310510272</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9637,22 +9637,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>76.45227440777256</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9877,25 +9877,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>372.647980294657</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -10117,25 +10117,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>342.3170758598123</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>96.13798426930725</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10348,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10360,16 +10360,16 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>317.5146261106144</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>205.0727796301204</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10585,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>136.2499899971297</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10831,10 +10831,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>201.9664098701126</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10843,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>189.7998007892644</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -11059,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11074,7 +11074,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>96.13798426930725</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11299,10 +11299,10 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11311,13 +11311,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P44" t="n">
-        <v>14.45386895940624</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23424,13 +23424,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>85.10780894267693</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23655,13 +23655,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>65.7971262913934</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0.6941762341249103</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23892,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23943,19 +23943,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>44.44129133857106</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>113.6007260552039</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>118.2281213950249</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24135,10 +24135,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
@@ -24147,7 +24147,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>105.0742887270141</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>43.60786094376958</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,25 +24414,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>113.4197768217122</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24612,16 +24612,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>46.34416740889725</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>3.556976973656731</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>21.59472895491403</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>118.4259022127102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,13 +25077,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25125,22 +25125,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>120.5001116432904</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>151.6245777422371</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>63.69952937758451</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>164.0498941116998</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>112.9231294270427</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>159.6457400831806</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25788,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25806,7 +25806,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,10 +25839,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>105.5328013589121</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>177.6444164952708</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>19.8176846364176</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>105.0742887270136</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>751956.8841304288</v>
+        <v>751956.8841304289</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>751956.8841304287</v>
+        <v>751956.8841304288</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>751956.8841304288</v>
+        <v>751956.8841304289</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>751956.8841304289</v>
+        <v>751956.8841304288</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>751956.8841304288</v>
+        <v>751956.8841304289</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>751956.8841304289</v>
+        <v>751956.8841304288</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380334</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380333</v>
+        <v>677359.4601380336</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380336</v>
       </c>
       <c r="E2" t="n">
+        <v>655184.9483635224</v>
+      </c>
+      <c r="F2" t="n">
+        <v>655184.9483635226</v>
+      </c>
+      <c r="G2" t="n">
         <v>655184.9483635221</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>655184.9483635224</v>
+      </c>
+      <c r="I2" t="n">
+        <v>655184.9483635223</v>
+      </c>
+      <c r="J2" t="n">
         <v>655184.9483635225</v>
       </c>
-      <c r="G2" t="n">
+      <c r="K2" t="n">
+        <v>655184.9483635226</v>
+      </c>
+      <c r="L2" t="n">
         <v>655184.9483635224</v>
       </c>
-      <c r="H2" t="n">
-        <v>655184.9483635226</v>
-      </c>
-      <c r="I2" t="n">
-        <v>655184.9483635221</v>
-      </c>
-      <c r="J2" t="n">
-        <v>655184.9483635224</v>
-      </c>
-      <c r="K2" t="n">
-        <v>655184.9483635222</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
+        <v>655184.9483635223</v>
+      </c>
+      <c r="N2" t="n">
         <v>655184.9483635225</v>
       </c>
-      <c r="M2" t="n">
-        <v>655184.9483635224</v>
-      </c>
-      <c r="N2" t="n">
-        <v>655184.9483635224</v>
-      </c>
       <c r="O2" t="n">
-        <v>655184.9483635223</v>
+        <v>655184.9483635225</v>
       </c>
       <c r="P2" t="n">
-        <v>655184.9483635224</v>
+        <v>655184.9483635225</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
         <v>176423.2191925929</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,19 +26426,19 @@
         <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
+        <v>18148.49231918989</v>
+      </c>
+      <c r="F4" t="n">
+        <v>18148.4923191899</v>
+      </c>
+      <c r="G4" t="n">
+        <v>18148.49231918993</v>
+      </c>
+      <c r="H4" t="n">
+        <v>18148.49231918995</v>
+      </c>
+      <c r="I4" t="n">
         <v>18148.49231918994</v>
-      </c>
-      <c r="F4" t="n">
-        <v>18148.49231918993</v>
-      </c>
-      <c r="G4" t="n">
-        <v>18148.49231918994</v>
-      </c>
-      <c r="H4" t="n">
-        <v>18148.49231918994</v>
-      </c>
-      <c r="I4" t="n">
-        <v>18148.49231918993</v>
       </c>
       <c r="J4" t="n">
         <v>18148.49231918993</v>
@@ -26450,13 +26450,13 @@
         <v>18148.49231918994</v>
       </c>
       <c r="M4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.4923191899</v>
       </c>
       <c r="N4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="O4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="P4" t="n">
         <v>18148.49231918994</v>
@@ -26472,10 +26472,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371366</v>
@@ -26487,7 +26487,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
         <v>96383.51825371366</v>
@@ -26496,13 +26496,13 @@
         <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="L5" t="n">
         <v>96383.51825371366</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>96383.51825371364</v>
-      </c>
-      <c r="M5" t="n">
-        <v>96383.51825371366</v>
       </c>
       <c r="N5" t="n">
         <v>96383.51825371366</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-178816.1839970485</v>
+        <v>-178816.1839970484</v>
       </c>
       <c r="C6" t="n">
-        <v>411151.6952174958</v>
+        <v>411151.6952174962</v>
       </c>
       <c r="D6" t="n">
         <v>411151.6952174961</v>
       </c>
       <c r="E6" t="n">
-        <v>-186724.4762027881</v>
+        <v>-187396.4311050457</v>
       </c>
       <c r="F6" t="n">
-        <v>540652.937790619</v>
+        <v>539980.9828883612</v>
       </c>
       <c r="G6" t="n">
-        <v>540652.9377906189</v>
+        <v>539980.9828883606</v>
       </c>
       <c r="H6" t="n">
-        <v>540652.9377906191</v>
+        <v>539980.9828883611</v>
       </c>
       <c r="I6" t="n">
-        <v>540652.9377906185</v>
+        <v>539980.9828883607</v>
       </c>
       <c r="J6" t="n">
-        <v>364229.718598026</v>
+        <v>363557.7636957681</v>
       </c>
       <c r="K6" t="n">
-        <v>540652.9377906186</v>
+        <v>539980.9828883612</v>
       </c>
       <c r="L6" t="n">
-        <v>540652.937790619</v>
+        <v>539980.982888361</v>
       </c>
       <c r="M6" t="n">
-        <v>411010.622951674</v>
+        <v>410338.6680494161</v>
       </c>
       <c r="N6" t="n">
-        <v>540652.9377906189</v>
+        <v>539980.9828883611</v>
       </c>
       <c r="O6" t="n">
-        <v>540652.9377906187</v>
+        <v>539980.9828883611</v>
       </c>
       <c r="P6" t="n">
-        <v>540652.9377906189</v>
+        <v>539980.9828883611</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>35.81865446695303</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>214.4805104606442</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,10 +27441,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>126.505059922771</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>3.806844538052008</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>223.6631059712105</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27636,7 +27636,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>45.22215615943912</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>149.2908737214061</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,7 +27830,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>20.33532920387782</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>369.5405956280379</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,19 +27909,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>337.6297991990328</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28013,19 +28013,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28070,13 +28070,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>96.92615468724702</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28092,7 +28092,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-4.725516654307187e-13</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -30039,7 +30039,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>-8.682195192673605e-13</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35409,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>635.0202028044811</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
         <v>455.5901143923322</v>
@@ -35421,19 +35421,19 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P11" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35646,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>227.9235121467567</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
         <v>538.9211158302268</v>
@@ -35661,10 +35661,10 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
         <v>463.1092954636242</v>
@@ -35883,13 +35883,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>485.2089366502526</v>
       </c>
       <c r="M17" t="n">
         <v>538.9211158302268</v>
@@ -35898,13 +35898,13 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>882.2223956904141</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
         <v>59.61319854222478</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P20" t="n">
-        <v>501.614917270399</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,22 +36357,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>532.0423888001047</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P23" t="n">
         <v>720.5606943908545</v>
@@ -36597,25 +36597,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>924.9498157075685</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
         <v>125.3296184152072</v>
@@ -36837,25 +36837,25 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>797.9071902521445</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>604.1909851575264</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37068,10 +37068,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
         <v>873.2513289427826</v>
@@ -37080,16 +37080,16 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>869.8164615235258</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>455.8670844338399</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
         <v>59.61319854222478</v>
@@ -37305,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>675.1711058273564</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37551,10 +37551,10 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>740.8875257003393</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
         <v>888.8531821509645</v>
@@ -37563,7 +37563,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>440.5941055929839</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
         <v>59.61319854222478</v>
@@ -37779,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302268</v>
@@ -37794,7 +37794,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>604.1909851575264</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P41" t="n">
         <v>720.5606943908545</v>
@@ -38019,10 +38019,10 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
         <v>988.4346493230593</v>
@@ -38031,13 +38031,13 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P44" t="n">
-        <v>413.2158551787781</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
         <v>59.61319854222478</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3001855.685687624</v>
+        <v>3005261.176812073</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836237</v>
+        <v>6654055.582836238</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095093</v>
+        <v>806345.8827095095</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,13 +670,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>39.96813536721593</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>109.4422623037129</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -721,7 +721,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -819,7 +819,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>25.3159054168623</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>163.4399765605759</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -898,16 +898,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>362.4006936231293</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -946,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>206.0020113488502</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>18.01892853764483</v>
+        <v>68.30802514718</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1141,7 +1141,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>12.38977444422385</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1150,7 +1150,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>179.7721955275298</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>59.66385641544559</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>101.7806877295494</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710085</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.5769297729268</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>74.75769145492404</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>114.4746605491556</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881751</v>
       </c>
       <c r="T14" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560547</v>
       </c>
     </row>
     <row r="15">
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>78.95788862292738</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>121.3090924494565</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2055,16 +2055,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>175.1076579375981</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>181.1375494785995</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2241,10 +2241,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>84.69473660442779</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>163.4253794986047</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2478,10 +2478,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>52.74455946606851</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2614,7 +2614,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2715,25 +2715,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>111.9187566128689</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2775,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>282.9660213629343</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2891,7 +2891,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>74.75769145492406</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>99.0488376328788</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>36.41670903610036</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T35" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3365,7 +3365,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S36" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T36" t="n">
         <v>190.7165703189231</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>116.1324508043528</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
@@ -3483,13 +3483,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>133.9095219288036</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S39" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T39" t="n">
         <v>190.7165703189231</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>6.38006817584762</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>257.4940548595331</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S42" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T42" t="n">
         <v>190.7165703189231</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>61.60385878691284</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>108.5674217103421</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3997,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4137,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>115.1131774584553</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>114.4746605491556</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554.3221432721089</v>
+        <v>512.2786438284563</v>
       </c>
       <c r="C2" t="n">
-        <v>185.3596263316971</v>
+        <v>512.2786438284563</v>
       </c>
       <c r="D2" t="n">
-        <v>185.3596263316971</v>
+        <v>512.2786438284563</v>
       </c>
       <c r="E2" t="n">
-        <v>185.3596263316971</v>
+        <v>512.2786438284563</v>
       </c>
       <c r="F2" t="n">
-        <v>178.4141255824937</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>164.4907215210846</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4330,10 +4330,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224075</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2057.295728843236</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1704.527073573122</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1331.061315312042</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y2" t="n">
-        <v>940.9219833362306</v>
+        <v>898.8784838925781</v>
       </c>
     </row>
     <row r="3">
@@ -4385,40 +4385,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>520.9088977430002</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="C4" t="n">
         <v>351.9727148150933</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>702.55736257324</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>702.55736257324</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>702.55736257324</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>702.55736257324</v>
+        <v>533.621179645333</v>
       </c>
       <c r="U4" t="n">
-        <v>702.55736257324</v>
+        <v>533.621179645333</v>
       </c>
       <c r="V4" t="n">
-        <v>702.55736257324</v>
+        <v>533.621179645333</v>
       </c>
       <c r="W4" t="n">
-        <v>702.55736257324</v>
+        <v>533.621179645333</v>
       </c>
       <c r="X4" t="n">
-        <v>702.55736257324</v>
+        <v>533.621179645333</v>
       </c>
       <c r="Y4" t="n">
-        <v>702.55736257324</v>
+        <v>533.621179645333</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>478.8522906713811</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C5" t="n">
-        <v>478.8522906713811</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="D5" t="n">
-        <v>478.8522906713811</v>
+        <v>819.7159451700475</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>433.9276925718032</v>
       </c>
       <c r="F5" t="n">
         <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
@@ -4585,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U5" t="n">
-        <v>2312.888763586079</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V5" t="n">
-        <v>1981.825876242509</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W5" t="n">
-        <v>1629.057220972395</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X5" t="n">
-        <v>1255.591462711315</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y5" t="n">
-        <v>865.4521307355029</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>517.0636002298166</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="C7" t="n">
-        <v>517.0636002298166</v>
+        <v>315.4874589503122</v>
       </c>
       <c r="D7" t="n">
-        <v>366.9469608174809</v>
+        <v>315.4874589503122</v>
       </c>
       <c r="E7" t="n">
-        <v>219.0338672350878</v>
+        <v>315.4874589503122</v>
       </c>
       <c r="F7" t="n">
-        <v>72.14391973717741</v>
+        <v>168.5975114524018</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4752,25 +4752,25 @@
         <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600564</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600564</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600564</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="Y7" t="n">
-        <v>698.7120650600564</v>
+        <v>484.4236418782191</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1141.749745823171</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C8" t="n">
-        <v>772.7872288827589</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D8" t="n">
-        <v>414.5215302760084</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E8" t="n">
-        <v>402.0066065949742</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>395.0611058457707</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4819,37 +4819,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500977</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V8" t="n">
-        <v>1881.118241157406</v>
+        <v>2112.324418312744</v>
       </c>
       <c r="W8" t="n">
-        <v>1528.349585887292</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X8" t="n">
-        <v>1528.349585887292</v>
+        <v>1577.967686752195</v>
       </c>
       <c r="Y8" t="n">
-        <v>1528.349585887292</v>
+        <v>1187.828354776384</v>
       </c>
     </row>
     <row r="9">
@@ -4874,28 +4874,28 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064344</v>
+        <v>325.6879402326647</v>
       </c>
       <c r="C10" t="n">
-        <v>667.8624625746712</v>
+        <v>156.7517573047578</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,7 +4971,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
         <v>529.6040388502502</v>
@@ -4980,34 +4980,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>507.3364050629044</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551629</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001594</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089266</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
@@ -5111,31 +5111,31 @@
         <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K12" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
         <v>2436.460902902952</v>
@@ -5229,22 +5229,22 @@
         <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.060509258584</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U13" t="n">
-        <v>1163.957642384228</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V13" t="n">
-        <v>909.2731541783409</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W13" t="n">
-        <v>619.8559841413803</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X13" t="n">
-        <v>391.866433243363</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y13" t="n">
-        <v>171.0738540998329</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
         <v>2005.253839749764</v>
@@ -5263,7 +5263,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
         <v>850.213983755162</v>
@@ -5284,13 +5284,13 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1557.603359811481</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M14" t="n">
-        <v>2091.135264483406</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N14" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O14" t="n">
         <v>3482.142110232732</v>
@@ -5305,25 +5305,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>736.3813786917215</v>
+        <v>973.7726509601081</v>
       </c>
       <c r="C16" t="n">
-        <v>567.4451957638146</v>
+        <v>804.8364680322012</v>
       </c>
       <c r="D16" t="n">
-        <v>567.4451957638146</v>
+        <v>654.7198286198654</v>
       </c>
       <c r="E16" t="n">
-        <v>419.5321021814215</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F16" t="n">
-        <v>272.6421546835111</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G16" t="n">
-        <v>272.6421546835111</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H16" t="n">
         <v>192.8867116300491</v>
@@ -5460,28 +5460,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1542.890966501056</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U16" t="n">
-        <v>1253.788099626699</v>
+        <v>1385.724257814702</v>
       </c>
       <c r="V16" t="n">
-        <v>1253.788099626699</v>
+        <v>1385.724257814702</v>
       </c>
       <c r="W16" t="n">
-        <v>964.3709295897388</v>
+        <v>1096.307087777741</v>
       </c>
       <c r="X16" t="n">
-        <v>736.3813786917215</v>
+        <v>973.7726509601081</v>
       </c>
       <c r="Y16" t="n">
-        <v>736.3813786917215</v>
+        <v>973.7726509601081</v>
       </c>
     </row>
     <row r="17">
@@ -5521,31 +5521,31 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1586.925993846823</v>
+        <v>1586.925993846824</v>
       </c>
       <c r="M17" t="n">
-        <v>2120.457898518747</v>
+        <v>2120.457898518748</v>
       </c>
       <c r="N17" t="n">
-        <v>2667.23671557753</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O17" t="n">
-        <v>3547.201365906984</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P17" t="n">
-        <v>4260.55645335393</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
         <v>4208.252829604874</v>
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
         <v>205.0702204089889</v>
@@ -5600,7 +5600,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5612,22 +5612,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5636,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>578.4172407837245</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
         <v>95.56103444839442</v>
@@ -5703,22 +5703,22 @@
         <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1497.950702529868</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1208.847835655512</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V19" t="n">
-        <v>1208.847835655512</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W19" t="n">
-        <v>1208.847835655512</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X19" t="n">
-        <v>980.8582847574944</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y19" t="n">
-        <v>760.0657056139643</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="20">
@@ -5731,19 +5731,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5752,46 +5752,46 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811481</v>
+        <v>1898.858917622687</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483405</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N20" t="n">
-        <v>2637.914081542187</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5807,37 +5807,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5846,25 +5846,25 @@
         <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5873,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839442</v>
+        <v>582.3166934139181</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839442</v>
+        <v>413.3805104860112</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G22" t="n">
         <v>95.56103444839442</v>
@@ -5913,7 +5913,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5925,37 +5925,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1780.96276986786</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T22" t="n">
-        <v>1559.196154437386</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U22" t="n">
-        <v>1270.093287563029</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V22" t="n">
-        <v>1015.408799357142</v>
+        <v>1502.164458322666</v>
       </c>
       <c r="W22" t="n">
-        <v>725.9916293201816</v>
+        <v>1212.747288285705</v>
       </c>
       <c r="X22" t="n">
-        <v>498.0020784221642</v>
+        <v>984.7577373876879</v>
       </c>
       <c r="Y22" t="n">
-        <v>277.2094992786341</v>
+        <v>763.9651582441578</v>
       </c>
     </row>
     <row r="23">
@@ -5968,22 +5968,22 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
@@ -5995,13 +5995,13 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483406</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O23" t="n">
         <v>3482.142110232732</v>
@@ -6016,25 +6016,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="24">
@@ -6044,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6110,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>781.811212990069</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C25" t="n">
-        <v>612.8750300621621</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D25" t="n">
-        <v>462.7583906498263</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>462.7583906498263</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>462.7583906498263</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>295.0555540245452</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>148.838367242403</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
@@ -6174,25 +6174,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104704</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T25" t="n">
-        <v>1956.343466104704</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U25" t="n">
-        <v>1956.343466104704</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V25" t="n">
-        <v>1701.658977898817</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W25" t="n">
-        <v>1412.241807861856</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X25" t="n">
-        <v>1184.252256963839</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y25" t="n">
-        <v>963.4596778203087</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
         <v>2005.253839749764</v>
@@ -6211,67 +6211,67 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483406</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N26" t="n">
-        <v>2637.914081542188</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
         <v>189.2383039390118</v>
@@ -6311,7 +6311,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6323,16 +6323,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>264.4972173763013</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839441</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839441</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839441</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839441</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839441</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6408,28 +6408,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V28" t="n">
-        <v>999.1036114208126</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W28" t="n">
-        <v>713.2793474178487</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X28" t="n">
-        <v>485.2897965198314</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="Y28" t="n">
-        <v>264.4972173763013</v>
+        <v>619.8559841413803</v>
       </c>
     </row>
     <row r="29">
@@ -6442,52 +6442,52 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1729.091615892342</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M29" t="n">
-        <v>2707.641918722171</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N29" t="n">
-        <v>3254.420735780953</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O29" t="n">
-        <v>3757.39320666029</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
         <v>4667.761053946815</v>
@@ -6496,19 +6496,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
         <v>189.2383039390118</v>
@@ -6575,7 +6575,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6584,10 +6584,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6606,19 +6606,19 @@
         <v>171.0738540998329</v>
       </c>
       <c r="E31" t="n">
-        <v>171.0738540998329</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>171.0738540998329</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>171.0738540998329</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>171.0738540998329</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6688,13 +6688,13 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
@@ -6703,19 +6703,19 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L32" t="n">
-        <v>1482.778354750621</v>
+        <v>1614.698881814246</v>
       </c>
       <c r="M32" t="n">
-        <v>2016.310259422546</v>
+        <v>2593.249184644075</v>
       </c>
       <c r="N32" t="n">
-        <v>2877.428556330836</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O32" t="n">
-        <v>3757.393206660291</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
         <v>4470.748294107237</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>654.9300288380085</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C34" t="n">
-        <v>485.9938459101016</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D34" t="n">
-        <v>485.9938459101016</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E34" t="n">
-        <v>485.9938459101016</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F34" t="n">
-        <v>339.1038984121913</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G34" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839442</v>
@@ -6882,28 +6882,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>1574.777793746756</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1574.777793746756</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V34" t="n">
-        <v>1574.777793746756</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W34" t="n">
-        <v>1285.360623709796</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X34" t="n">
-        <v>1057.371072811778</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y34" t="n">
-        <v>836.5784936682483</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>284.44016540742</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972665</v>
       </c>
       <c r="L35" t="n">
-        <v>1557.603359811481</v>
+        <v>1237.706702364126</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483406</v>
+        <v>2216.257005193955</v>
       </c>
       <c r="N35" t="n">
-        <v>2637.914081542188</v>
+        <v>3196.009277420601</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750057</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107235</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862917</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T35" t="n">
         <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -6992,40 +6992,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C36" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320246</v>
       </c>
       <c r="M36" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N36" t="n">
         <v>1715.000032008795</v>
@@ -7034,16 +7034,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
         <v>2271.877220313403</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>825.859557377715</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="C37" t="n">
-        <v>656.9233744498081</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="D37" t="n">
-        <v>506.8067350374723</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E37" t="n">
-        <v>506.8067350374723</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F37" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G37" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H37" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
@@ -7101,13 +7101,13 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M37" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N37" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O37" t="n">
         <v>1646.12566951853</v>
@@ -7119,28 +7119,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T37" t="n">
-        <v>1453.060509258584</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U37" t="n">
-        <v>1163.957642384228</v>
+        <v>1445.473983799874</v>
       </c>
       <c r="V37" t="n">
-        <v>1163.957642384228</v>
+        <v>1310.211840437446</v>
       </c>
       <c r="W37" t="n">
-        <v>1163.957642384228</v>
+        <v>1020.794670400485</v>
       </c>
       <c r="X37" t="n">
-        <v>1163.957642384228</v>
+        <v>792.8051195024677</v>
       </c>
       <c r="Y37" t="n">
-        <v>943.1650632406976</v>
+        <v>572.0125403589376</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
         <v>2005.253839749764</v>
@@ -7159,67 +7159,67 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089256</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2216.257005193957</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N38" t="n">
-        <v>3196.009277420604</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O38" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="39">
@@ -7229,40 +7229,40 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J39" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320246</v>
       </c>
       <c r="M39" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N39" t="n">
         <v>1715.000032008795</v>
@@ -7274,7 +7274,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R39" t="n">
         <v>2593.958107142068</v>
@@ -7286,7 +7286,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7295,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>270.9417306852383</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C40" t="n">
-        <v>102.0055477573314</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D40" t="n">
-        <v>102.0055477573314</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E40" t="n">
-        <v>102.0055477573314</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F40" t="n">
-        <v>102.0055477573314</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
@@ -7338,13 +7338,13 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L40" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M40" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N40" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O40" t="n">
         <v>1646.12566951853</v>
@@ -7356,28 +7356,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S40" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T40" t="n">
-        <v>1734.57685067423</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="U40" t="n">
-        <v>1445.473983799873</v>
+        <v>1577.410141987876</v>
       </c>
       <c r="V40" t="n">
-        <v>1190.789495593986</v>
+        <v>1322.725653781989</v>
       </c>
       <c r="W40" t="n">
-        <v>901.3723255570255</v>
+        <v>1062.630648873369</v>
       </c>
       <c r="X40" t="n">
-        <v>673.3827746590082</v>
+        <v>834.6410979753522</v>
       </c>
       <c r="Y40" t="n">
-        <v>452.5901955154781</v>
+        <v>613.848518831822</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
         <v>2005.253839749764</v>
@@ -7396,22 +7396,22 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K41" t="n">
         <v>1106.569146563073</v>
@@ -7447,16 +7447,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W41" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="42">
@@ -7466,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390113</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193584</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7511,7 +7511,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R42" t="n">
         <v>2593.958107142068</v>
@@ -7520,7 +7520,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U42" t="n">
         <v>2043.809373447819</v>
@@ -7529,7 +7529,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W42" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X42" t="n">
         <v>1346.568408282342</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>582.3166934139181</v>
+        <v>452.5901955154785</v>
       </c>
       <c r="C43" t="n">
-        <v>413.3805104860112</v>
+        <v>452.5901955154785</v>
       </c>
       <c r="D43" t="n">
-        <v>263.2638710736754</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E43" t="n">
-        <v>263.2638710736754</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F43" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
@@ -7575,13 +7575,13 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L43" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M43" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N43" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O43" t="n">
         <v>1646.12566951853</v>
@@ -7593,28 +7593,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T43" t="n">
-        <v>1866.513008862232</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U43" t="n">
-        <v>1756.848946528553</v>
+        <v>1445.473983799874</v>
       </c>
       <c r="V43" t="n">
-        <v>1502.164458322666</v>
+        <v>1190.789495593987</v>
       </c>
       <c r="W43" t="n">
-        <v>1212.747288285705</v>
+        <v>901.372325557026</v>
       </c>
       <c r="X43" t="n">
-        <v>984.7577373876879</v>
+        <v>673.3827746590086</v>
       </c>
       <c r="Y43" t="n">
-        <v>763.9651582441578</v>
+        <v>452.5901955154785</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G44" t="n">
         <v>435.1415336001585</v>
@@ -7645,55 +7645,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074198</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K44" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N44" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O44" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="45">
@@ -7703,40 +7703,40 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320246</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N45" t="n">
         <v>1715.000032008795</v>
@@ -7748,7 +7748,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R45" t="n">
         <v>2593.958107142068</v>
@@ -7760,7 +7760,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7769,10 +7769,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>95.56103444839442</v>
+        <v>844.8098170227828</v>
       </c>
       <c r="C46" t="n">
-        <v>95.56103444839442</v>
+        <v>675.8736340948759</v>
       </c>
       <c r="D46" t="n">
-        <v>95.56103444839442</v>
+        <v>525.7569946825402</v>
       </c>
       <c r="E46" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F46" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
@@ -7812,13 +7812,13 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L46" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M46" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N46" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O46" t="n">
         <v>1646.12566951853</v>
@@ -7830,28 +7830,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.657581931531</v>
       </c>
       <c r="T46" t="n">
-        <v>1559.196154437386</v>
+        <v>1764.657581931531</v>
       </c>
       <c r="U46" t="n">
-        <v>1270.093287563029</v>
+        <v>1764.657581931531</v>
       </c>
       <c r="V46" t="n">
-        <v>1015.408799357142</v>
+        <v>1764.657581931531</v>
       </c>
       <c r="W46" t="n">
-        <v>725.9916293201816</v>
+        <v>1475.24041189457</v>
       </c>
       <c r="X46" t="n">
-        <v>498.0020784221642</v>
+        <v>1247.250860996553</v>
       </c>
       <c r="Y46" t="n">
-        <v>277.2094992786341</v>
+        <v>1026.458281853023</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,10 +8543,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783517</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8932,7 +8932,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8941,7 +8941,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9169,7 +9169,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>29.61882225792044</v>
+        <v>29.61882225792135</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9406,7 +9406,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>344.7025836476828</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9415,7 +9415,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836476853</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9643,7 +9643,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9652,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>344.7025836476829</v>
+        <v>258.621178561693</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10114,22 +10114,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>342.3170758598123</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10351,22 +10351,22 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>226.7688596193112</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>317.5146261106144</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>170.1140909277278</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>-9.481304630298837e-13</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>201.9664098701126</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476822</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>-9.481304630298837e-13</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11074,7 +11074,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476829</v>
+        <v>344.7025836476822</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>133.2530576400255</v>
+        <v>344.7025836476822</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>-9.481304630298837e-13</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>105.0742887270133</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>105.0742887270136</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>65.7971262913934</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>104.4005629395807</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23904,10 +23904,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23943,16 +23943,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>44.44129133857106</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24129,10 +24129,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>105.0742887270141</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>88.71226382522332</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24366,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>43.60786094376958</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,13 +24414,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>34.51520603370028</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>3.556976973656731</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24846,7 +24846,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>71.67627119164513</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24858,7 +24858,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>21.59472895491403</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25086,16 +25086,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>120.5001116432904</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>182.1679443159944</v>
       </c>
     </row>
     <row r="35">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>63.69952937758451</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,13 +25371,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>118.2281213950244</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>159.6457400831806</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>29.02894347705791</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>87.01161423129952</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>177.6444164952708</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>31.3207851881139</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>105.0742887270136</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>751956.8841304288</v>
+        <v>751956.8841304289</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>751956.8841304289</v>
+        <v>751956.8841304288</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>751956.8841304288</v>
+        <v>751956.8841304289</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>751956.8841304289</v>
+        <v>751956.8841304288</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>751956.8841304289</v>
+        <v>751956.8841304288</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>751956.8841304289</v>
+        <v>751956.8841304288</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>751956.8841304288</v>
+        <v>751956.8841304289</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380334</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380336</v>
+        <v>677359.4601380334</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380336</v>
+        <v>677359.4601380333</v>
       </c>
       <c r="E2" t="n">
         <v>655184.9483635224</v>
       </c>
       <c r="F2" t="n">
-        <v>655184.9483635226</v>
+        <v>655184.9483635228</v>
       </c>
       <c r="G2" t="n">
+        <v>655184.9483635225</v>
+      </c>
+      <c r="H2" t="n">
+        <v>655184.9483635225</v>
+      </c>
+      <c r="I2" t="n">
+        <v>655184.9483635225</v>
+      </c>
+      <c r="J2" t="n">
         <v>655184.9483635221</v>
       </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
         <v>655184.9483635224</v>
       </c>
-      <c r="I2" t="n">
-        <v>655184.9483635223</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>655184.9483635225</v>
       </c>
-      <c r="K2" t="n">
-        <v>655184.9483635226</v>
-      </c>
-      <c r="L2" t="n">
-        <v>655184.9483635224</v>
-      </c>
       <c r="M2" t="n">
-        <v>655184.9483635223</v>
+        <v>655184.9483635222</v>
       </c>
       <c r="N2" t="n">
         <v>655184.9483635225</v>
       </c>
       <c r="O2" t="n">
-        <v>655184.9483635225</v>
+        <v>655184.9483635222</v>
       </c>
       <c r="P2" t="n">
-        <v>655184.9483635225</v>
+        <v>655184.9483635224</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389447</v>
+        <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="C4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="E4" t="n">
+        <v>18148.4923191899</v>
+      </c>
+      <c r="F4" t="n">
         <v>18148.49231918989</v>
       </c>
-      <c r="F4" t="n">
-        <v>18148.4923191899</v>
-      </c>
       <c r="G4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="H4" t="n">
-        <v>18148.49231918995</v>
+        <v>18148.49231918992</v>
       </c>
       <c r="I4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="J4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="K4" t="n">
         <v>18148.49231918994</v>
@@ -26450,16 +26450,16 @@
         <v>18148.49231918994</v>
       </c>
       <c r="M4" t="n">
-        <v>18148.4923191899</v>
+        <v>18148.49231918991</v>
       </c>
       <c r="N4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918991</v>
       </c>
       <c r="O4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918992</v>
       </c>
       <c r="P4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918991</v>
       </c>
     </row>
     <row r="5">
@@ -26472,31 +26472,31 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="J5" t="n">
         <v>96383.51825371366</v>
       </c>
-      <c r="J5" t="n">
-        <v>96383.51825371364</v>
-      </c>
       <c r="K5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
         <v>96383.51825371366</v>
@@ -26505,13 +26505,13 @@
         <v>96383.51825371364</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-178816.1839970484</v>
       </c>
       <c r="C6" t="n">
-        <v>411151.6952174962</v>
+        <v>411151.695217496</v>
       </c>
       <c r="D6" t="n">
-        <v>411151.6952174961</v>
+        <v>411151.6952174958</v>
       </c>
       <c r="E6" t="n">
-        <v>-187396.4311050457</v>
+        <v>-186791.6716930135</v>
       </c>
       <c r="F6" t="n">
-        <v>539980.9828883612</v>
+        <v>540585.7423003934</v>
       </c>
       <c r="G6" t="n">
-        <v>539980.9828883606</v>
+        <v>540585.7423003932</v>
       </c>
       <c r="H6" t="n">
-        <v>539980.9828883611</v>
+        <v>540585.7423003932</v>
       </c>
       <c r="I6" t="n">
-        <v>539980.9828883607</v>
+        <v>540585.7423003932</v>
       </c>
       <c r="J6" t="n">
-        <v>363557.7636957681</v>
+        <v>364162.5231077997</v>
       </c>
       <c r="K6" t="n">
-        <v>539980.9828883612</v>
+        <v>540585.7423003931</v>
       </c>
       <c r="L6" t="n">
-        <v>539980.982888361</v>
+        <v>540585.7423003932</v>
       </c>
       <c r="M6" t="n">
-        <v>410338.6680494161</v>
+        <v>410943.427461448</v>
       </c>
       <c r="N6" t="n">
-        <v>539980.9828883611</v>
+        <v>540585.7423003932</v>
       </c>
       <c r="O6" t="n">
-        <v>539980.9828883611</v>
+        <v>540585.7423003928</v>
       </c>
       <c r="P6" t="n">
-        <v>539980.9828883611</v>
+        <v>540585.7423003931</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26770,16 +26770,16 @@
         <v>1089.776700593298</v>
       </c>
       <c r="M3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="N3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="O3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
     </row>
     <row r="4">
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762115</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,19 +26980,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503743</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27390,13 +27390,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>366.9079103744955</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>214.4805104606442</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,7 +27441,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27539,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.806844538052008</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27590,7 +27590,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>61.59512889750835</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27618,16 +27618,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>44.47535211858212</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27666,19 +27666,19 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>45.22215615943912</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>149.2908737214061</v>
+        <v>99.00177711187091</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27824,7 +27824,7 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27861,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>369.5405956280379</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>189.9589051509392</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>107.5829646831822</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>46.83478528866297</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28092,7 +28092,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28110,7 +28110,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>-8.444841250298201e-13</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-4.725516654307187e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -30039,7 +30039,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>-8.682195192673605e-13</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -31521,7 +31521,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31530,34 +31530,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,40 +31594,40 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
@@ -31636,7 +31636,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H35" t="n">
         <v>44.86703772844668</v>
@@ -33657,40 +33657,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T35" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H36" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q36" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33809,43 +33809,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K37" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L37" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P37" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q37" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U37" t="n">
         <v>0.1071911508780295</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H38" t="n">
         <v>44.86703772844668</v>
@@ -33894,40 +33894,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T38" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H39" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q39" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34046,43 +34046,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L40" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P40" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q40" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U40" t="n">
         <v>0.1071911508780295</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H41" t="n">
         <v>44.86703772844668</v>
@@ -34131,40 +34131,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T41" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H42" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34283,43 +34283,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L43" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P43" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q43" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U43" t="n">
         <v>0.1071911508780295</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H44" t="n">
         <v>44.86703772844668</v>
@@ -34368,40 +34368,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T44" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34520,43 +34520,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L46" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,7 +34789,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35178,22 +35178,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,22 +35251,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35652,7 +35652,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M14" t="n">
         <v>538.9211158302268</v>
@@ -35661,7 +35661,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
         <v>720.5606943908545</v>
@@ -35889,7 +35889,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>485.2089366502526</v>
+        <v>485.2089366502535</v>
       </c>
       <c r="M17" t="n">
         <v>538.9211158302268</v>
@@ -36123,25 +36123,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>800.292698040015</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>852.7555845359043</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,7 +36363,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M23" t="n">
         <v>538.9211158302268</v>
@@ -36372,7 +36372,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
         <v>720.5606943908545</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>852.755584535902</v>
+        <v>766.6741794499121</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36834,22 +36834,22 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>797.9071902521445</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M29" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
         <v>250.7943048037195</v>
@@ -37071,22 +37071,22 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>682.3589740116433</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>869.8164615235258</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
         <v>250.7943048037195</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>625.7042053200601</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230594</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248957</v>
       </c>
       <c r="O35" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509647</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q36" t="n">
         <v>159.2338966127272</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K37" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M37" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N37" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O37" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M38" t="n">
-        <v>740.8875257003393</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359016</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q39" t="n">
         <v>159.2338966127272</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K40" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M40" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N40" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O40" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>852.755584535902</v>
+        <v>852.7555845359016</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q42" t="n">
         <v>159.2338966127272</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K43" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M43" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N43" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O43" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>641.3060585282446</v>
+        <v>852.7555845359016</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K46" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O46" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
